--- a/supernova performance.xlsx
+++ b/supernova performance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ddani\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3065055E-F77C-4D0E-B844-9310CEA2F64A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{381F2115-3ACF-479A-AD29-1652622737BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{B0F3BEB9-E49F-4D68-A5FC-745FCF369A65}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>LINES</t>
   </si>
@@ -85,6 +85,15 @@
   </si>
   <si>
     <t>y="-math.sin(6*t-7.854)*12000-11900" ,t&gt;0</t>
+  </si>
+  <si>
+    <t>Smooth 6v</t>
+  </si>
+  <si>
+    <t>17 Απρ</t>
+  </si>
+  <si>
+    <t>y="-math.sin(6*t-7.854)*20000-19980" ,t&gt;0</t>
   </si>
 </sst>
 </file>
@@ -439,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F6B59F2-6AD4-4BE0-B045-D890E87A7640}">
-  <dimension ref="B4:G10"/>
+  <dimension ref="B4:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -565,6 +574,26 @@
         <v>17</v>
       </c>
     </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="E11" s="1">
+        <v>9.07</v>
+      </c>
+      <c r="F11" s="1">
+        <v>13.84</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/supernova performance.xlsx
+++ b/supernova performance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ddani\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{381F2115-3ACF-479A-AD29-1652622737BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C4F58B-4B57-41ED-8473-F8409F61FDEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{B0F3BEB9-E49F-4D68-A5FC-745FCF369A65}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="42">
   <si>
     <t>LINES</t>
   </si>
@@ -94,16 +94,85 @@
   </si>
   <si>
     <t>y="-math.sin(6*t-7.854)*20000-19980" ,t&gt;0</t>
+  </si>
+  <si>
+    <t>f2 t</t>
+  </si>
+  <si>
+    <t>f0 t</t>
+  </si>
+  <si>
+    <t>f1 t</t>
+  </si>
+  <si>
+    <t>f3 t</t>
+  </si>
+  <si>
+    <t>f4 t</t>
+  </si>
+  <si>
+    <t>19 Απρ</t>
+  </si>
+  <si>
+    <t>f0 nt</t>
+  </si>
+  <si>
+    <t>f1 nt</t>
+  </si>
+  <si>
+    <t>f2 nt</t>
+  </si>
+  <si>
+    <t>f3 nt</t>
+  </si>
+  <si>
+    <t>f4 nt</t>
+  </si>
+  <si>
+    <t>f2 sin_rate=500 nt</t>
+  </si>
+  <si>
+    <t>f4 100+ +80 nt</t>
+  </si>
+  <si>
+    <t>cos to long</t>
+  </si>
+  <si>
+    <t>sigmoid</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>Column4</t>
+  </si>
+  <si>
+    <t>Column5</t>
+  </si>
+  <si>
+    <t>Column6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -138,7 +207,32 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -149,6 +243,21 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{25EA91BA-A062-4DB3-A3FB-87D7C74E9715}" name="Table1" displayName="Table1" ref="B4:G24" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="B4:G24" xr:uid="{9E20340E-C5A6-42B3-B097-55ADBD97589A}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{D621BDB2-5004-4967-979F-B11950605693}" name="Column1" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{F3228A5D-875C-44B0-8F67-C501653C2FBB}" name="Column2" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{218ABEB2-5ABF-4607-A94C-B794035EEDE6}" name="Column3" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{635FA258-BA1D-44D5-8CA8-3E60F505E89C}" name="Column4" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{7671FA4E-1E2B-45BC-9707-DE500DA981A0}" name="Column5" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{AFFB20BD-AD10-4A84-8F18-39B5A3E5E8D3}" name="Column6" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -448,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F6B59F2-6AD4-4BE0-B045-D890E87A7640}">
-  <dimension ref="B4:G11"/>
+  <dimension ref="B4:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -459,143 +568,407 @@
     <col min="1" max="1" width="8.88671875" style="1"/>
     <col min="2" max="2" width="19.109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.77734375" style="1" customWidth="1"/>
-    <col min="4" max="6" width="8.88671875" style="1"/>
+    <col min="4" max="6" width="10.109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="42.109375" style="1" customWidth="1"/>
     <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="E4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D5" s="1">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E6" s="1">
         <v>2</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F6" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D6" s="1" t="s">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="1">
-        <v>7.76</v>
-      </c>
-      <c r="E7" s="1">
-        <v>23</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="1">
-        <v>14.84</v>
+        <v>4</v>
+      </c>
+      <c r="D8" s="1">
+        <v>7.76</v>
+      </c>
+      <c r="E8" s="1">
+        <v>23</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="1">
-        <v>10.45</v>
+      <c r="E9" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="F9" s="1">
-        <v>15.76</v>
+        <v>14.84</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="1">
-        <v>3.6</v>
+        <v>12</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="E10" s="1">
-        <v>11.3</v>
+        <v>10.45</v>
       </c>
       <c r="F10" s="1">
-        <v>16.2</v>
+        <v>15.76</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="E11" s="1">
+        <v>11.3</v>
+      </c>
+      <c r="F11" s="1">
+        <v>16.2</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D12" s="1">
         <v>2.8</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E12" s="1">
         <v>9.07</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F12" s="1">
         <v>13.84</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>20</v>
       </c>
     </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="1">
+        <v>18.440000000000001</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="1">
+        <v>17.46</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="1">
+        <v>16.760000000000002</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="1">
+        <v>16.91</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="1">
+        <v>16.78</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="1">
+        <v>20.78</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="1">
+        <v>16.77</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="1">
+        <v>15.86</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="1">
+        <v>17.14</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="1">
+        <v>15.58</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="1">
+        <v>15.27</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="1">
+        <v>4.07</v>
+      </c>
+      <c r="E24" s="1">
+        <v>10.28</v>
+      </c>
+      <c r="F24" s="1">
+        <v>15.72</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/supernova performance.xlsx
+++ b/supernova performance.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Column1</t>
   </si>
@@ -139,6 +139,12 @@
   </si>
   <si>
     <t xml:space="preserve">f4 100+ +80 nt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f4 nt 6v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f3 t 6v</t>
   </si>
   <si>
     <t>f3</t>
@@ -728,7 +734,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="100" workbookViewId="0">
       <selection activeCell="I15" activeCellId="0" sqref="I15"/>
     </sheetView>
   </sheetViews>
@@ -1132,7 +1138,7 @@
     </row>
     <row r="25" ht="14.25">
       <c r="B25" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C25" s="3">
         <v>45436</v>
@@ -1146,13 +1152,13 @@
       <c r="F25" s="1">
         <v>12.56</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="G25" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="26" ht="14.25">
       <c r="B26" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C26" s="3">
         <v>45436</v>
@@ -1166,13 +1172,13 @@
       <c r="F26" s="1">
         <v>12.92</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G26" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="27" ht="14.25">
       <c r="B27" s="2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C27" s="3">
         <v>45436</v>
@@ -1186,8 +1192,8 @@
       <c r="F27" s="1">
         <v>12.890000000000001</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>42</v>
+      <c r="G27" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
